--- a/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
+++ b/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">Trần Hoài An </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>TP Hà Nội</t>
   </si>
@@ -38,57 +35,30 @@
     <t>Không</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Phúc</t>
-  </si>
-  <si>
     <t>TP Hồ Chí Minh</t>
   </si>
   <si>
     <t>Thiên Chúa Giáo</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoài Thương </t>
-  </si>
-  <si>
     <t>TP Vinh</t>
   </si>
   <si>
     <t xml:space="preserve">Phật Giáo </t>
   </si>
   <si>
-    <t xml:space="preserve">Cao Quang Lâm </t>
-  </si>
-  <si>
     <t>Cà Mau</t>
   </si>
   <si>
-    <t>Võ Hùng Phương Duy</t>
-  </si>
-  <si>
     <t>Gia Lai</t>
   </si>
   <si>
-    <t>Nguyễn Quế Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Cao Phương Mai </t>
-  </si>
-  <si>
     <t>Tiền Giang</t>
   </si>
   <si>
-    <t>Võ Lâm Phương Quỳnh</t>
-  </si>
-  <si>
-    <t>Đào Huỳnh Quang</t>
-  </si>
-  <si>
     <t>Cần Thơ</t>
   </si>
   <si>
-    <t>Danh Sách Lớp 11C1</t>
-  </si>
-  <si>
     <t>Ngày Sinh</t>
   </si>
   <si>
@@ -111,6 +81,45 @@
   </si>
   <si>
     <t>Tên</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Mỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Phúc Hậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Hoài Thương </t>
+  </si>
+  <si>
+    <t>Cao Quang Lâm Nghĩa</t>
+  </si>
+  <si>
+    <t>Võ Cao Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Quế Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Phương Mai </t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Đào Nguyễn Công Vinh</t>
+  </si>
+  <si>
+    <t>Huỳnh Hoàng Nam</t>
+  </si>
+  <si>
+    <t>Trần Thùy My</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trúc Như</t>
+  </si>
+  <si>
+    <t>Danh Sách Lớp 12C1</t>
   </si>
 </sst>
 </file>
@@ -429,67 +438,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36409</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>36404</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -497,7 +513,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>36312</v>
@@ -506,16 +522,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -523,25 +539,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>36289</v>
+        <v>36377</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -549,25 +565,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>36259</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -575,25 +591,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>36161</v>
+        <v>36404</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -601,25 +617,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>36409</v>
+        <v>36316</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -627,25 +643,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>36377</v>
+        <v>36259</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -653,25 +669,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>36380</v>
+        <v>36347</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -679,27 +695,105 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
+        <v>36161</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>36380</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>36289</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
         <v>36411</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
     </row>

--- a/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
+++ b/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
@@ -59,67 +59,67 @@
     <t>Cần Thơ</t>
   </si>
   <si>
+    <t>Mã Lớp</t>
+  </si>
+  <si>
+    <t>Mã Chương Trình Học</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Mỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Phúc Hậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Hoài Thương </t>
+  </si>
+  <si>
+    <t>Cao Quang Lâm Nghĩa</t>
+  </si>
+  <si>
+    <t>Võ Cao Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Quế Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Phương Mai </t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Đào Nguyễn Công Vinh</t>
+  </si>
+  <si>
+    <t>Huỳnh Hoàng Nam</t>
+  </si>
+  <si>
+    <t>Trần Thùy My</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trúc Như</t>
+  </si>
+  <si>
+    <t>Danh Sách Lớp 12C1</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
     <t>Ngày Sinh</t>
   </si>
   <si>
+    <t>Giới Tính</t>
+  </si>
+  <si>
     <t>Nơi Sinh</t>
   </si>
   <si>
-    <t>Mã Lớp</t>
-  </si>
-  <si>
-    <t>Mã Chương Trình Học</t>
-  </si>
-  <si>
-    <t>Giới Tính</t>
-  </si>
-  <si>
     <t>Dân Tộc</t>
   </si>
   <si>
     <t>Tôn Giáo</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Trần Hoàng Mỹ</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Phúc Hậu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Hoài Thương </t>
-  </si>
-  <si>
-    <t>Cao Quang Lâm Nghĩa</t>
-  </si>
-  <si>
-    <t>Võ Cao Quang</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Quế Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Phương Mai </t>
-  </si>
-  <si>
-    <t>Đỗ Thanh Tâm</t>
-  </si>
-  <si>
-    <t>Đào Nguyễn Công Vinh</t>
-  </si>
-  <si>
-    <t>Huỳnh Hoàng Nam</t>
-  </si>
-  <si>
-    <t>Trần Thùy My</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Trúc Như</t>
-  </si>
-  <si>
-    <t>Danh Sách Lớp 12C1</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +442,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,37 +458,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>36409</v>
@@ -505,15 +506,15 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>36312</v>
@@ -531,15 +532,15 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>36377</v>
@@ -557,15 +558,15 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>36259</v>
@@ -583,15 +584,15 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>36404</v>
@@ -609,15 +610,15 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>36316</v>
@@ -635,15 +636,15 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>36259</v>
@@ -661,15 +662,15 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>36347</v>
@@ -687,15 +688,15 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>36161</v>
@@ -713,15 +714,15 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>36380</v>
@@ -739,15 +740,15 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>36289</v>
@@ -765,15 +766,15 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>36411</v>
@@ -791,13 +792,14 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
+++ b/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/DataExcel_Test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C63EC-D31C-4487-BE19-98161D2E4548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>TP Hà Nội</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Trần Hoàng Mỹ</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Phúc Hậu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Võ Hoài Thương </t>
   </si>
   <si>
@@ -120,12 +118,15 @@
   </si>
   <si>
     <t>Tôn Giáo</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Cẩm Tú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,22 +460,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -483,12 +484,12 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>36409</v>
@@ -506,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -514,16 +515,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>36312</v>
+        <v>25452</v>
       </c>
       <c r="C3">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -532,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -540,7 +538,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>36377</v>
@@ -558,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -566,7 +564,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>36259</v>
@@ -584,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -610,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -618,7 +616,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>36316</v>
@@ -636,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>36259</v>
@@ -662,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -670,7 +668,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>36347</v>
@@ -688,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -696,7 +694,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>36161</v>
@@ -714,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -722,7 +720,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>36380</v>
@@ -740,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -748,7 +746,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>36289</v>
@@ -766,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>36411</v>
@@ -792,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>1</v>
